--- a/用例数据/深A/权证行权/现金选择权/T+1日/测试结果.xlsx
+++ b/用例数据/深A/权证行权/现金选择权/T+1日/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="224">
   <si>
     <t>EXCHID</t>
   </si>
@@ -338,9 +338,6 @@
     <t>创测CCP2</t>
   </si>
   <si>
-    <t>22000</t>
-  </si>
-  <si>
     <t>CONTRACTNUM</t>
   </si>
   <si>
@@ -684,6 +681,18 @@
   </si>
   <si>
     <t>DELIVERYFLAG</t>
+  </si>
+  <si>
+    <t>3120000.0000</t>
+  </si>
+  <si>
+    <t>-24000</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1306,19 +1315,19 @@
         <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>96</v>
@@ -1357,7 +1366,7 @@
         <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>92</v>
@@ -1401,6 +1410,9 @@
       <c r="AO2" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AP2" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="AQ2" s="1" t="s">
         <v>92</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>93</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>95</v>
@@ -1563,19 +1575,19 @@
         <v>92</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>96</v>
@@ -1614,7 +1626,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>92</v>
@@ -1658,6 +1670,9 @@
       <c r="AO3" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AP3" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="AQ3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1734,7 +1749,7 @@
         <v>93</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>95</v>
@@ -1853,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1874,22 +1889,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>23</v>
@@ -1901,58 +1916,58 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>21</v>
@@ -1961,211 +1976,211 @@
         <v>2</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="CF1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2173,7 +2188,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>86</v>
@@ -2203,13 +2218,13 @@
         <v>95</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>98</v>
@@ -2224,49 +2239,49 @@
         <v>99</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>86</v>
@@ -2284,13 +2299,13 @@
         <v>93</v>
       </c>
       <c r="AM2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>92</v>
@@ -2308,13 +2323,13 @@
         <v>92</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>92</v>
@@ -2332,49 +2347,49 @@
         <v>86</v>
       </c>
       <c r="BF2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BS2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE2" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="CF2" s="1" t="s">
         <v>95</v>
@@ -2439,7 +2454,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>86</v>
@@ -2460,7 +2475,7 @@
         <v>104</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>94</v>
@@ -2469,13 +2484,13 @@
         <v>95</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>98</v>
@@ -2490,49 +2505,49 @@
         <v>99</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>86</v>
@@ -2550,13 +2565,13 @@
         <v>93</v>
       </c>
       <c r="AM3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>92</v>
@@ -2574,13 +2589,13 @@
         <v>92</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>92</v>
@@ -2598,7 +2613,7 @@
         <v>86</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>95</v>
@@ -2616,31 +2631,31 @@
         <v>92</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BR3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BS3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE3" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="CF3" s="1" t="s">
         <v>95</v>
@@ -2724,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2742,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2763,22 +2778,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>23</v>
@@ -2790,58 +2805,58 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>21</v>
@@ -2850,220 +2865,220 @@
         <v>2</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="CH1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="CI1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3071,7 +3086,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>86</v>
@@ -3101,13 +3116,13 @@
         <v>95</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>98</v>
@@ -3122,49 +3137,49 @@
         <v>99</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>86</v>
@@ -3188,7 +3203,7 @@
         <v>92</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>92</v>
@@ -3212,13 +3227,13 @@
         <v>92</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>92</v>
@@ -3236,49 +3251,49 @@
         <v>86</v>
       </c>
       <c r="BI2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BV2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="CI2" s="1" t="s">
         <v>95</v>
@@ -3343,7 +3358,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>86</v>
@@ -3364,7 +3379,7 @@
         <v>104</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>94</v>
@@ -3373,13 +3388,13 @@
         <v>95</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>98</v>
@@ -3394,49 +3409,49 @@
         <v>99</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>86</v>
@@ -3460,7 +3475,7 @@
         <v>92</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>92</v>
@@ -3484,13 +3499,13 @@
         <v>92</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BD3" s="1" t="s">
         <v>92</v>
@@ -3508,7 +3523,7 @@
         <v>86</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BJ3" s="1" t="s">
         <v>95</v>
@@ -3526,31 +3541,31 @@
         <v>92</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BU3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BV3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CH3" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="CI3" s="1" t="s">
         <v>95</v>

--- a/用例数据/深A/权证行权/现金选择权/T+1日/测试结果.xlsx
+++ b/用例数据/深A/权证行权/现金选择权/T+1日/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D562DC44-2866-4814-ADB5-78A2836DDB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -686,19 +687,21 @@
     <t>3120000.0000</t>
   </si>
   <si>
-    <t>-24000</t>
-  </si>
-  <si>
     <t>130.0000</t>
   </si>
   <si>
-    <t>20000</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1017,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1327,7 +1330,7 @@
         <v>95</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>96</v>
@@ -1366,7 +1369,7 @@
         <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>92</v>
@@ -1626,7 +1629,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>92</v>
@@ -1850,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2736,7 +2739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DE22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
